--- a/CSF111.xlsx
+++ b/CSF111.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
   <si>
     <t>Sl No</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>-6.00</t>
+  </si>
+  <si>
+    <t>Calculated Pre-Compre</t>
+  </si>
+  <si>
+    <t>Calculated Compre</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1788,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2022,6 +2028,12 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -20755,108 +20767,6 @@
       </c>
       <c r="L494" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="D495" s="2">
-        <v>11.63184584</v>
-      </c>
-      <c r="E495" s="2">
-        <v>34.6678499</v>
-      </c>
-      <c r="F495" s="2">
-        <v>19.13995943</v>
-      </c>
-      <c r="G495" s="2">
-        <v>27.756643</v>
-      </c>
-      <c r="H495" s="2">
-        <v>93.18678499</v>
-      </c>
-      <c r="J495" s="2">
-        <v>139.9072515</v>
-      </c>
-      <c r="K495" t="s">
-        <v>567</v>
-      </c>
-      <c r="L495" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="D496" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="E496" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="F496" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="G496" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="H496" s="2">
-        <v>179.0</v>
-      </c>
-      <c r="J496" s="2">
-        <v>267.5</v>
-      </c>
-      <c r="K496" t="s">
-        <v>137</v>
-      </c>
-      <c r="L496" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="D497" s="2">
-        <v>-6.0</v>
-      </c>
-      <c r="E497" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F497" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G497" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H497" s="2">
-        <v>-3.0</v>
-      </c>
-      <c r="J497" s="2">
-        <v>-3.0</v>
-      </c>
-      <c r="K497" t="s">
-        <v>568</v>
-      </c>
-      <c r="L497" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="498" ht="15.75" customHeight="true">
-      <c r="K498" t="s">
-        <v>48</v>
-      </c>
-      <c r="L498" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="499" ht="15.75" customHeight="true">
-      <c r="K499" t="s">
-        <v>48</v>
-      </c>
-      <c r="L499" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="500" ht="15.75" customHeight="true">
-      <c r="K500" t="s">
-        <v>48</v>
-      </c>
-      <c r="L500" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
